--- a/LS_rating.xlsx
+++ b/LS_rating.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ratings" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ratings'!$A$1:$J$138</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +30,24 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6CEE4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,14 +61,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,13 +455,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="26" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -464,3296 +503,5783 @@
           <t>LS_letter</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>distance_lower_bound</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ERV_Dot</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>in ERV</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>21.33333333333333</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>19.00673952808294</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>19.00673952808294</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G2" s="3" t="n">
+        <v>0.5067395280829388</v>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          ⚫          </t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>BRIAN HORRIGAN</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>United Kingdom</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>19.33333333333333</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>19.27452491584373</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>19.27452491584373</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G3" s="3" t="n">
+        <v>0.7745249158437311</v>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>JON LEVY</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>18.73540143754284</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>18.73540143754284</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G4" s="3" t="n">
+        <v>0.2354014375428406</v>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>19.33333333333333</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>17.34389914420622</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>17.34389914420622</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="G5" s="3" t="n">
+        <v>0.8438991442062189</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>23.39352290184391</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>18.39622114316823</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>18.59622114316823</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G7" s="3" t="n">
+        <v>0.09622114316822916</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>JON LEVY</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>21.2028334802274</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>21.6028334802274</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G8" s="3" t="n">
+        <v>0.1028334802273996</v>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>JON LEVY</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>16.4327737361284</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>16.4327737361284</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G9" s="3" t="n">
+        <v>0.9327737361284001</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ⚫                   </t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>JON LEVY</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>21.00728610914889</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>21.00728610914889</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G10" s="3" t="n">
+        <v>0.5072861091488896</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          ⚫          </t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="3" t="n">
         <v>21.54186584579675</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>21.54186584579675</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G11" s="3" t="n">
+        <v>0.04186584579674957</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="3" t="n">
         <v>23.75224150040491</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>JINGZHOU MENG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="3" t="n">
         <v>21.82008982711099</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>21.82008982711099</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G13" s="3" t="n">
+        <v>0.3200898271109907</v>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>JINGZHOU MENG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>23.32820988917312</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>21.66666666666667</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>19.82021584571774</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>20.52021584571774</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G15" s="3" t="n">
+        <v>0.02021584571773971</v>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>JINGZHOU MENG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="3" t="n">
         <v>17.66666666666667</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3" t="n">
         <v>18.11187082879853</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>18.11187082879853</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
+      <c r="G16" s="3" t="n">
+        <v>0.6118708287985299</v>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>BO ZHUANG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3" t="n">
         <v>19.61666267909682</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>19.61666267909682</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
+      <c r="G17" s="3" t="n">
+        <v>0.1166626790968195</v>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="3" t="n">
         <v>13.11636269283331</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>13.11636269283331</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G18" s="3" t="n">
+        <v>0.6163626928333095</v>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="3" t="n">
         <v>17.66666666666667</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3" t="n">
         <v>17.22253704612415</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>17.22253704612415</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="G19" s="3" t="n">
+        <v>0.7225370461241489</v>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ⚫              </t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="3" t="n">
         <v>19.66666666666667</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="3" t="n">
         <v>21.33996657135958</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>21.33996657135958</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G20" s="3" t="n">
+        <v>0.8399665713595788</v>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="3" t="n">
         <v>15.45880706253024</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>15.45880706253024</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>BBB+</t>
         </is>
       </c>
+      <c r="G21" s="3" t="n">
+        <v>0.9588070625302407</v>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ⚫                   </t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="3" t="n">
         <v>16.33333333333333</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="3" t="n">
         <v>16.80572652665255</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>16.80572652665255</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="G22" s="3" t="n">
+        <v>0.3057265266525491</v>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3" t="n">
         <v>17.53424381088404</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>17.53424381088404</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
+      <c r="G23" s="3" t="n">
+        <v>0.03424381088403905</v>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>JINGZHOU MENG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="3" t="n">
         <v>9.666666666666666</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="3" t="n">
         <v>11.89811378311601</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="3" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="3" t="n">
         <v>11.39811378311601</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G24" s="3" t="n">
+        <v>0.8981137831160098</v>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="3" t="n">
         <v>21.35844967664555</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="3" t="n">
         <v>21.65844967664555</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>AAA</t>
         </is>
       </c>
+      <c r="G25" s="3" t="n">
+        <v>0.1584496766455494</v>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>New Zealand</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="3" t="n">
         <v>21.33333333333333</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="3" t="n">
         <v>20.0406414964959</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="3" t="n">
         <v>20.5406414964959</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G26" s="3" t="n">
+        <v>0.04064149649590121</v>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>South Africa</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="3" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="3" t="n">
         <v>11.66415130028542</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="3" t="n">
         <v>12.16415130028542</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G27" s="3" t="n">
+        <v>0.66415130028542</v>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       ⚫             </t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="3" t="n">
         <v>4.666666666666668</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="3" t="n">
         <v>8.716895546103265</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="3" t="n">
         <v>-2.25</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="3" t="n">
         <v>6.466895546103265</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G28" s="3" t="n">
+        <v>0.9668955461032649</v>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ⚫                   </t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Bolivia</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="3" t="n">
         <v>4.333333333333332</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="3" t="n">
         <v>6.535030020761594</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="3" t="n">
         <v>-2.75</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="3" t="n">
         <v>3.785030020761594</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>CCC-</t>
         </is>
       </c>
+      <c r="G29" s="3" t="n">
+        <v>0.2850300207615941</v>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="3" t="n">
         <v>11.33333333333333</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="3" t="n">
         <v>12.63324618744836</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="3" t="n">
         <v>11.63324618744836</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G30" s="3" t="n">
+        <v>0.1332461874483606</v>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="3" t="n">
         <v>16.66666666666667</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="3" t="n">
         <v>15.91448970458822</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>15.91448970458822</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G31" s="3" t="n">
+        <v>0.4144897045882203</v>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Colombia</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="3" t="n">
         <v>12.66666666666667</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="3" t="n">
         <v>12.17589772091573</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="3" t="n">
         <v>-1.5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="3" t="n">
         <v>10.67589772091573</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G32" s="3" t="n">
+        <v>0.1758977209157297</v>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="3" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="3" t="n">
         <v>13.77620022861139</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="3" t="n">
         <v>-1.25</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="3" t="n">
         <v>12.52620022861139</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G33" s="3" t="n">
+        <v>0.02620022861139049</v>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Dominican Republic</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="3" t="n">
         <v>10.33333333333333</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="3" t="n">
         <v>11.85810800239411</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="3" t="n">
         <v>11.60810800239411</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G34" s="3" t="n">
+        <v>0.1081080023941094</v>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="3" t="n">
         <v>5.666666666666668</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="3" t="n">
         <v>8.481503428565011</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="3" t="n">
         <v>-2.75</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="3" t="n">
         <v>5.731503428565011</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G35" s="3" t="n">
+        <v>0.231503428565011</v>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="3" t="n">
         <v>6.22444996106025</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="3" t="n">
         <v>6.97444996106025</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G36" s="3" t="n">
+        <v>0.4744499610602499</v>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           ⚫         </t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="3" t="n">
         <v>11.33333333333333</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="3" t="n">
         <v>10.69424549724247</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="3" t="n">
         <v>11.69424549724247</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G37" s="3" t="n">
+        <v>0.1942454972424699</v>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Honduras</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="3" t="n">
         <v>8.857128110634864</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>8.857128110634864</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G38" s="3" t="n">
+        <v>0.3571281106348643</v>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ⚫       </t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="3" t="n">
         <v>13.66666666666667</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="3" t="n">
         <v>12.4460104813022</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="3" t="n">
         <v>12.6960104813022</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G39" s="3" t="n">
+        <v>0.1960104813021992</v>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Nicaragua</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="3" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="3" t="n">
         <v>6.72916546168811</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="n">
         <v>6.72916546168811</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G40" s="3" t="n">
+        <v>0.22916546168811</v>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Panama</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="3" t="n">
         <v>12.66666666666667</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="3" t="n">
         <v>11.63367287330461</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="3" t="n">
         <v>11.53367287330461</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G41" s="3" t="n">
+        <v>0.03367287330461011</v>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="3" t="n">
         <v>12.33333333333333</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="3" t="n">
         <v>10.42658206004034</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="3" t="n">
         <v>2.25</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="3" t="n">
         <v>12.67658206004034</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G42" s="3" t="n">
+        <v>0.1765820600403405</v>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Peru</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="3" t="n">
         <v>12.73570853250365</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="3" t="n">
         <v>13.48570853250365</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G43" s="3" t="n">
+        <v>0.9857085325036508</v>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="3" t="n">
         <v>14.66666666666667</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="3" t="n">
         <v>13.76759854832318</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="n">
         <v>13.76759854832318</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G44" s="3" t="n">
+        <v>0.2675985483231802</v>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Venezuela</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="3" t="n">
         <v>-0.6681875168112392</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Barbados</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="3" t="n">
         <v>9.550892648381737</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="3" t="n">
         <v>-0.75</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="3" t="n">
         <v>8.800892648381737</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G46" s="3" t="n">
+        <v>0.3008926483817369</v>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Belize</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="3" t="n">
         <v>6.5</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="3" t="n">
         <v>6.171174248598065</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="n">
         <v>6.171174248598065</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G47" s="3" t="n">
+        <v>0.6711742485980654</v>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       ⚫             </t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="3" t="n">
         <v>9.666666666666666</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="3" t="n">
         <v>9.607837704537884</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>9.607837704537884</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G48" s="3" t="n">
+        <v>0.107837704537884</v>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Suriname</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="3" t="n">
         <v>4.333333333333332</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="3" t="n">
         <v>4.108017151136476</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="n">
         <v>4.108017151136476</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>CCC-</t>
         </is>
       </c>
+      <c r="G49" s="3" t="n">
+        <v>0.608017151136476</v>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="3" t="n">
         <v>11.54564838629112</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="3" t="n">
         <v>-2</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="3" t="n">
         <v>9.54564838629112</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G50" s="3" t="n">
+        <v>0.04564838629111989</v>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>GREGORY HADJIAN</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Bahrain</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="3" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="3" t="n">
         <v>9.420454256769421</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="3" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="3" t="n">
         <v>7.820454256769422</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G51" s="3" t="n">
+        <v>0.3204542567694215</v>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="3" t="n">
         <v>13.16568394183339</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="D52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>13.16568394183339</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G52" s="3" t="n">
+        <v>0.6656839418333895</v>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       ⚫             </t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>Iraq</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="3" t="n">
         <v>6.666666666666668</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="3" t="n">
         <v>8.538136530498729</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="n">
         <v>8.538136530498729</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G53" s="3" t="n">
+        <v>0.03813653049872912</v>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="3" t="n">
         <v>16.33333333333333</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="3" t="n">
         <v>16.2480851435333</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="3" t="n">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="3" t="n">
         <v>15.6480851435333</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G54" s="3" t="n">
+        <v>0.148085143533299</v>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Jordan</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="3" t="n">
         <v>9.920140154660734</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="3" t="n">
         <v>-0.4</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="3" t="n">
         <v>9.520140154660734</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G55" s="3" t="n">
+        <v>0.0201401546607336</v>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Kuwait</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="3" t="n">
         <v>18.33333333333333</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="3" t="n">
         <v>19.14169073459334</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="3" t="n">
         <v>-1.5</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="3" t="n">
         <v>17.64169073459334</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
+      <c r="G56" s="3" t="n">
+        <v>0.1416907345933396</v>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Lebanon</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="3" t="n">
         <v>1.333333333333332</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="3" t="n">
         <v>-1.823049997003666</v>
       </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="D57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I57" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Oman</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="3" t="n">
         <v>12.33333333333333</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="3" t="n">
         <v>14.18070796503462</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="3" t="n">
         <v>-0.7</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="3" t="n">
         <v>13.48070796503462</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G58" s="3" t="n">
+        <v>0.98070796503462</v>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I58" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Qatar</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="3" t="n">
         <v>17.48671498101453</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="3" t="n">
         <v>20.98671498101453</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G59" s="3" t="n">
+        <v>0.4867149810145293</v>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          ⚫          </t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="3" t="n">
         <v>18.33333333333333</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="3" t="n">
         <v>15.91110320156436</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="3" t="n">
         <v>16.11110320156436</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G60" s="3" t="n">
+        <v>0.6111032015643616</v>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="3" t="n">
         <v>18.35003024300677</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="3" t="n">
         <v>2.4</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="3" t="n">
         <v>20.75003024300677</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G61" s="3" t="n">
+        <v>0.2500302430067691</v>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Egypt</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="3" t="n">
         <v>7.01718583511255</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="3" t="n">
         <v>7.51718583511255</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G62" s="3" t="n">
+        <v>0.01718583511255023</v>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Bangladesh</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="3" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="3" t="n">
         <v>9.804400637106427</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="D63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="n">
         <v>9.804400637106427</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G63" s="3" t="n">
+        <v>0.3044006371064274</v>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I63" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Cambodia</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="3" t="n">
         <v>9.50712987977893</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="n">
         <v>9.50712987977893</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G64" s="3" t="n">
+        <v>0.007129879778929649</v>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="3" t="n">
         <v>4.333333333333332</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="3" t="n">
         <v>4.253649922937681</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="3" t="n">
         <v>5.853649922937681</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G65" s="3" t="n">
+        <v>0.3536499229376808</v>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ⚫       </t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="3" t="n">
         <v>20.64529326253533</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="D66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="n">
         <v>20.64529326253533</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G66" s="3" t="n">
+        <v>0.1452932625353291</v>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Hong Kong</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="3" t="n">
         <v>19.66666666666667</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="3" t="n">
         <v>19.82338535431619</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="D67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="n">
         <v>19.82338535431619</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
+      <c r="G67" s="3" t="n">
+        <v>0.3233853543161906</v>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>BO ZHUANG</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="3" t="n">
         <v>13.44826116114525</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="3" t="n">
         <v>13.94826116114525</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G68" s="3" t="n">
+        <v>0.4482611611452505</v>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           ⚫         </t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="3" t="n">
         <v>14.30755000182152</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="3" t="n">
         <v>-0.4</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="3" t="n">
         <v>13.90755000182152</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G69" s="3" t="n">
+        <v>0.4075500018215195</v>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="3" t="n">
         <v>19.66666666666667</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="3" t="n">
         <v>19.00057093756752</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="n">
         <v>19.00057093756752</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G70" s="3" t="n">
+        <v>0.5005709375675202</v>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          ⚫          </t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Lao P.D.R.</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="3" t="n">
         <v>6.063552133340655</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="n">
         <v>6.063552133340655</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G71" s="3" t="n">
+        <v>0.5635521333406546</v>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         ⚫           </t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>Macau</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="3" t="n">
         <v>18.86124109293528</v>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="n">
         <v>18.86124109293528</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>AA-</t>
         </is>
       </c>
+      <c r="G72" s="3" t="n">
+        <v>0.3612410929352805</v>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ⚫       </t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="3" t="n">
         <v>15.66666666666667</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="3" t="n">
         <v>14.76106231666966</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="3" t="n">
         <v>15.51106231666966</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G73" s="3" t="n">
+        <v>0.01106231666966018</v>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Maldives</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="3" t="n">
         <v>6.327079625924615</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="D74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="n">
         <v>6.327079625924615</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G74" s="3" t="n">
+        <v>0.8270796259246147</v>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="3" t="n">
         <v>5.711334835257405</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="3" t="n">
         <v>-0.2</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="3" t="n">
         <v>5.511334835257405</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G75" s="3" t="n">
+        <v>0.0113348352574052</v>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Philippines</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="3" t="n">
         <v>14.33333333333333</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="3" t="n">
         <v>12.33619009396474</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="3" t="n">
         <v>1.25</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="3" t="n">
         <v>13.58619009396474</v>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G76" s="3" t="n">
+        <v>0.0861900939647402</v>
+      </c>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                  ⚫  </t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Singapore</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="3" t="n">
         <v>18.17503936267597</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="3" t="n">
         <v>3.25</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="3" t="n">
         <v>21.42503936267597</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>AA+</t>
         </is>
       </c>
+      <c r="G77" s="3" t="n">
+        <v>0.925039362675971</v>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ⚫                   </t>
+        </is>
+      </c>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="3" t="n">
         <v>13.18688169154661</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="3" t="n">
         <v>13.68688169154661</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G78" s="3" t="n">
+        <v>0.1868816915466098</v>
+      </c>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>Vietnam</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="3" t="n">
         <v>11.66666666666667</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="3" t="n">
         <v>13.03312433934453</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="D79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3" t="n">
         <v>13.03312433934453</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G79" s="3" t="n">
+        <v>0.5331243393445302</v>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         ⚫           </t>
+        </is>
+      </c>
+      <c r="I79" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>HUANI ZHU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>Angola</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="3" t="n">
         <v>8.266866191328553</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="3" t="n">
         <v>7.266866191328553</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G80" s="3" t="n">
+        <v>0.7668661913285533</v>
+      </c>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I80" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J80" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>Botswana</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="3" t="n">
         <v>12.42462869816284</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="D81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="n">
         <v>12.42462869816284</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G81" s="3" t="n">
+        <v>0.9246286981628398</v>
+      </c>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I81" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="3" t="n">
         <v>7.735787454311486</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="D82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="n">
         <v>7.735787454311486</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G82" s="3" t="n">
+        <v>0.2357874543114864</v>
+      </c>
+      <c r="H82" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I82" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Cabo Verde</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="3" t="n">
         <v>9.497273183947174</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="D83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="n">
         <v>9.497273183947174</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G83" s="3" t="n">
+        <v>0.9972731839471738</v>
+      </c>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I83" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>Republic of Congo</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="3" t="n">
         <v>5.666666666666668</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="3" t="n">
         <v>4.234720824668677</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="n">
         <v>4.234720824668677</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>CCC-</t>
         </is>
       </c>
+      <c r="G84" s="3" t="n">
+        <v>0.7347208246686767</v>
+      </c>
+      <c r="H84" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I84" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Democratic Republic of the Congo</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="3" t="n">
         <v>6.36055981281662</v>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="D85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="n">
         <v>6.36055981281662</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G85" s="3" t="n">
+        <v>0.8605598128166196</v>
+      </c>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I85" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>Benin</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="3" t="n">
         <v>9.333333333333334</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="3" t="n">
         <v>7.916181905462977</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="D86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3" t="n">
         <v>7.916181905462977</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G86" s="3" t="n">
+        <v>0.4161819054629774</v>
+      </c>
+      <c r="H86" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>Ethiopia</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="3" t="n">
         <v>7.248974447037676</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
+      <c r="D87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="n">
         <v>7.248974447037676</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G87" s="3" t="n">
+        <v>0.7489744470376758</v>
+      </c>
+      <c r="H87" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I87" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>Gabon</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="3" t="n">
         <v>7.516325099377828</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="3" t="n">
         <v>-1.5</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="3" t="n">
         <v>6.016325099377828</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G88" s="3" t="n">
+        <v>0.5163250993778279</v>
+      </c>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          ⚫          </t>
+        </is>
+      </c>
+      <c r="I88" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="3" t="n">
         <v>2.333333333333332</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="3" t="n">
         <v>7.038314862308495</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="3" t="n">
         <v>6.038314862308495</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G89" s="3" t="n">
+        <v>0.5383148623084946</v>
+      </c>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         ⚫           </t>
+        </is>
+      </c>
+      <c r="I89" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J89" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Côte d'Ivoire</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="3" t="n">
         <v>10.66666666666667</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="3" t="n">
         <v>9.822505229442985</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="3" t="n">
         <v>11.32250522944299</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G90" s="3" t="n">
+        <v>0.8225052294429851</v>
+      </c>
+      <c r="H90" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ⚫                </t>
+        </is>
+      </c>
+      <c r="I90" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J90" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Kenya</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="3" t="n">
         <v>6.666666666666668</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="3" t="n">
         <v>8.997409023164746</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="3" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="3" t="n">
         <v>8.497409023164746</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G91" s="3" t="n">
+        <v>0.9974090231647459</v>
+      </c>
+      <c r="H91" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I91" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Lesotho</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="3" t="n">
         <v>7.264400581030337</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3" t="n">
         <v>7.264400581030337</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G92" s="3" t="n">
+        <v>0.7644005810303369</v>
+      </c>
+      <c r="H92" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I92" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Madagascar</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="3" t="n">
         <v>6.53097560796883</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="D93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3" t="n">
         <v>6.53097560796883</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G93" s="3" t="n">
+        <v>0.0309756079688297</v>
+      </c>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I93" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J93" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Mauritius</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="3" t="n">
         <v>12.04427408153468</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="D94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="n">
         <v>12.04427408153468</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G94" s="3" t="n">
+        <v>0.5442740815346792</v>
+      </c>
+      <c r="H94" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         ⚫           </t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J94" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Morocco</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="3" t="n">
         <v>11.14762595492956</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="3" t="n">
         <v>12.54762595492956</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G95" s="3" t="n">
+        <v>0.04762595492956123</v>
+      </c>
+      <c r="H95" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J95" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>Mozambique</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="3" t="n">
         <v>5.333333333333332</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="3" t="n">
         <v>2.195358313758975</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="D96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3" t="n">
         <v>2.195358313758975</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
+      <c r="G96" s="3" t="n">
+        <v>0.6953583137589749</v>
+      </c>
+      <c r="H96" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ⚫              </t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>Niger</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="3" t="n">
         <v>5.333783932144007</v>
       </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3" t="n">
         <v>5.333783932144007</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t>CCC</t>
         </is>
       </c>
+      <c r="G97" s="3" t="n">
+        <v>0.8337839321440068</v>
+      </c>
+      <c r="H97" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I97" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="3" t="n">
         <v>7.130844654565408</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="3" t="n">
         <v>7.630844654565408</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G98" s="3" t="n">
+        <v>0.1308446545654078</v>
+      </c>
+      <c r="H98" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I98" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="2" t="inlineStr">
         <is>
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="3" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="3" t="n">
         <v>8.57125697863607</v>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="D99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="n">
         <v>8.57125697863607</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G99" s="3" t="n">
+        <v>0.07125697863606995</v>
+      </c>
+      <c r="H99" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I99" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="2" t="inlineStr">
         <is>
           <t>Seychelles</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="3" t="n">
         <v>11.19212663378267</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="n">
         <v>11.19212663378267</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G100" s="3" t="n">
+        <v>0.6921266337826708</v>
+      </c>
+      <c r="H100" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ⚫              </t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J100" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="3" t="n">
         <v>7.961961780278127</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="3" t="n">
         <v>6.961961780278127</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
+      <c r="G101" s="3" t="n">
+        <v>0.4619617802781271</v>
+      </c>
+      <c r="H101" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           ⚫         </t>
+        </is>
+      </c>
+      <c r="I101" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J101" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
         <is>
           <t>Namibia</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="3" t="n">
         <v>10.17311267045717</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
+      <c r="D102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="n">
         <v>10.17311267045717</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F102" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G102" s="3" t="n">
+        <v>0.6731126704571704</v>
+      </c>
+      <c r="H102" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       ⚫             </t>
+        </is>
+      </c>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J102" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>Tanzania</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="3" t="n">
         <v>9.848452648260007</v>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="D103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="n">
         <v>9.848452648260007</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G103" s="3" t="n">
+        <v>0.3484526482600074</v>
+      </c>
+      <c r="H103" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ⚫       </t>
+        </is>
+      </c>
+      <c r="I103" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J103" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="3" t="n">
         <v>5.393828670916841</v>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
+      <c r="D104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="n">
         <v>5.393828670916841</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="4" t="inlineStr">
         <is>
           <t>CCC</t>
         </is>
       </c>
+      <c r="G104" s="3" t="n">
+        <v>0.8938286709168413</v>
+      </c>
+      <c r="H104" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>Tunisia</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="3" t="n">
         <v>8.634545755053628</v>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="D105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3" t="n">
         <v>8.634545755053628</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G105" s="3" t="n">
+        <v>0.1345457550536278</v>
+      </c>
+      <c r="H105" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I105" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
         <is>
           <t>Uganda</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="3" t="n">
         <v>7.333333333333334</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="3" t="n">
         <v>7.90879704607098</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
+      <c r="D106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="n">
         <v>7.90879704607098</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G106" s="3" t="n">
+        <v>0.4087970460709798</v>
+      </c>
+      <c r="H106" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I106" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J106" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
         <is>
           <t>Burkina Faso</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="3" t="n">
         <v>5.819109014230614</v>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="D107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3" t="n">
         <v>5.819109014230614</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G107" s="3" t="n">
+        <v>0.3191090142306141</v>
+      </c>
+      <c r="H107" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I107" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J107" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
         <is>
           <t>Zambia</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="3" t="n">
         <v>2.333333333333332</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="3" t="n">
         <v>4.684537511924766</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="3" t="n">
         <v>5.684537511924766</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="4" t="inlineStr">
         <is>
           <t>CCC+</t>
         </is>
       </c>
+      <c r="G108" s="3" t="n">
+        <v>0.1845375119247663</v>
+      </c>
+      <c r="H108" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I108" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J108" s="4" t="inlineStr">
+        <is>
+          <t>SAURABH LELE</t>
+        </is>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="3" t="n">
         <v>9.570780228021514</v>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
+      <c r="D109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3" t="n">
         <v>9.570780228021514</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G109" s="3" t="n">
+        <v>0.07078022802151374</v>
+      </c>
+      <c r="H109" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I109" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>Papua New Guinea</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="3" t="n">
         <v>9.332820807624991</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="3" t="n">
         <v>8.332820807624991</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G110" s="3" t="n">
+        <v>0.8328208076249908</v>
+      </c>
+      <c r="H110" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I110" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
+        <is>
+          <t>KAIMIN KHAW</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="2" t="inlineStr">
         <is>
           <t>Armenia</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="3" t="n">
         <v>10.18309770689345</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="3" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="3" t="n">
         <v>9.683097706893451</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G111" s="3" t="n">
+        <v>0.1830977068934505</v>
+      </c>
+      <c r="H111" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I111" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
         <is>
           <t>Azerbaijan</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="3" t="n">
         <v>12.33333333333333</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="3" t="n">
         <v>11.48333823460004</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="3" t="n">
         <v>11.73333823460004</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G112" s="3" t="n">
+        <v>0.2333382346000406</v>
+      </c>
+      <c r="H112" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I112" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="2" t="inlineStr">
         <is>
           <t>Belarus</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="3" t="n">
         <v>1.333333333333332</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="3" t="n">
         <v>5.550187249151973</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="3" t="n">
         <v>-5</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
+      <c r="G113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I113" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="2" t="inlineStr">
         <is>
           <t>Albania</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="3" t="n">
         <v>11.39271850087315</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
+      <c r="D114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3" t="n">
         <v>11.39271850087315</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G114" s="3" t="n">
+        <v>0.8927185008731495</v>
+      </c>
+      <c r="H114" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="3" t="n">
         <v>12.8811384844694</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="3" t="n">
         <v>-2.5</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="3" t="n">
         <v>10.3811384844694</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G115" s="3" t="n">
+        <v>0.8811384844693997</v>
+      </c>
+      <c r="H115" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="2" t="inlineStr">
         <is>
           <t>Kazakhstan</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="3" t="n">
         <v>12.38774778753935</v>
       </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
+      <c r="D116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3" t="n">
         <v>12.38774778753935</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G116" s="3" t="n">
+        <v>0.8877477875393502</v>
+      </c>
+      <c r="H116" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>Kyrgyz Republic</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="3" t="n">
         <v>7.346528863722734</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="3" t="n">
         <v>7.846528863722734</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
+      <c r="G117" s="3" t="n">
+        <v>0.3465288637227344</v>
+      </c>
+      <c r="H117" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ⚫       </t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J117" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="2" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="3" t="n">
         <v>14.33333333333333</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="3" t="n">
         <v>14.30629632054461</v>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="D118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3" t="n">
         <v>14.30629632054461</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" s="4" t="inlineStr">
         <is>
           <t>BBB</t>
         </is>
       </c>
+      <c r="G118" s="3" t="n">
+        <v>0.8062963205446092</v>
+      </c>
+      <c r="H118" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ⚫                </t>
+        </is>
+      </c>
+      <c r="I118" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J118" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
         <is>
           <t>Moldova</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="3" t="n">
         <v>8.565726299711764</v>
       </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
+      <c r="D119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="n">
         <v>8.565726299711764</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G119" s="3" t="n">
+        <v>0.06572629971176447</v>
+      </c>
+      <c r="H119" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="3" t="n">
         <v>9.940958762122767</v>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
+      <c r="D120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="n">
         <v>9.940958762122767</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G120" s="3" t="n">
+        <v>0.4409587621227669</v>
+      </c>
+      <c r="H120" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           ⚫         </t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="3" t="n">
         <v>17.66666666666667</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="3" t="n">
         <v>15.02838663114166</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="3" t="n">
         <v>15.52838663114166</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G121" s="3" t="n">
+        <v>0.02838663114165918</v>
+      </c>
+      <c r="H121" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                   ⚫ </t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J121" s="4" t="inlineStr">
+        <is>
+          <t>BO ZHUANG</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="2" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="3" t="n">
         <v>1.666666666666668</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="3" t="n">
         <v>5.387622854152368</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="3" t="n">
         <v>-4</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="3" t="n">
         <v>1.387622854152368</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
+      <c r="G122" s="3" t="n">
+        <v>0.8876228541523679</v>
+      </c>
+      <c r="H122" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ⚫                  </t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="2" t="inlineStr">
         <is>
           <t>Uzbekistan</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="3" t="n">
         <v>10.34583746354729</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="3" t="n">
         <v>11.34583746354729</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G123" s="3" t="n">
+        <v>0.8458374635472907</v>
+      </c>
+      <c r="H123" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr">
+        <is>
+          <t>HASSAN MALIK</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="3" t="n">
         <v>17.87746118955674</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="3" t="n">
         <v>18.17746118955674</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
+      <c r="G124" s="3" t="n">
+        <v>0.6774611895567411</v>
+      </c>
+      <c r="H124" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ⚫              </t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="3" t="n">
         <v>16.66666666666667</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="3" t="n">
         <v>15.35428946977376</v>
       </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="D125" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="n">
         <v>15.35428946977376</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t>BBB+</t>
         </is>
       </c>
+      <c r="G125" s="3" t="n">
+        <v>0.8542894697737609</v>
+      </c>
+      <c r="H125" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   ⚫                 </t>
+        </is>
+      </c>
+      <c r="I125" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="3" t="n">
         <v>17.67473001544429</v>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
+      <c r="D126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="n">
         <v>17.67473001544429</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
+      <c r="G126" s="3" t="n">
+        <v>0.1747300154442897</v>
+      </c>
+      <c r="H126" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 ⚫   </t>
+        </is>
+      </c>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
         <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="3" t="n">
         <v>16.33333333333333</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="3" t="n">
         <v>15.87874018942871</v>
       </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
+      <c r="D127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="n">
         <v>15.87874018942871</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G127" s="3" t="n">
+        <v>0.3787401894287097</v>
+      </c>
+      <c r="H127" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="3" t="n">
         <v>12.47410833437822</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" s="3" t="n">
         <v>13.27410833437822</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G128" s="3" t="n">
+        <v>0.7741083343782211</v>
+      </c>
+      <c r="H128" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     ⚫               </t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>Montenegro</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="3" t="n">
         <v>10.11307690530583</v>
       </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
+      <c r="D129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="n">
         <v>10.11307690530583</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>BB-</t>
         </is>
       </c>
+      <c r="G129" s="3" t="n">
+        <v>0.6130769053058298</v>
+      </c>
+      <c r="H129" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="3" t="n">
         <v>13.66666666666667</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="3" t="n">
         <v>13.95473378638647</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="3" t="n">
         <v>-1.2</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="3" t="n">
         <v>12.75473378638647</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>BBB-</t>
         </is>
       </c>
+      <c r="G130" s="3" t="n">
+        <v>0.2547337863864705</v>
+      </c>
+      <c r="H130" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               ⚫     </t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="3" t="n">
         <v>17.4258028815862</v>
       </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="D131" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="n">
         <v>17.4258028815862</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="G131" s="3" t="n">
+        <v>0.9258028815862005</v>
+      </c>
+      <c r="H131" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ⚫                   </t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>Mongolia</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="3" t="n">
         <v>8.666666666666666</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="3" t="n">
         <v>10.73479249215913</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="3" t="n">
         <v>-1.25</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="3" t="n">
         <v>9.48479249215913</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G132" s="3" t="n">
+        <v>0.98479249215913</v>
+      </c>
+      <c r="H132" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">⚫                    </t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J132" s="4" t="inlineStr">
+        <is>
+          <t>BO ZHUANG</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="3" t="n">
         <v>15.52022407333662</v>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
+      <c r="D133" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3" t="n">
         <v>15.52022407333662</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G133" s="3" t="n">
+        <v>0.02022407333661924</v>
+      </c>
+      <c r="H133" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ⚫</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="3" t="n">
         <v>17.33333333333333</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="3" t="n">
         <v>15.90434481005443</v>
       </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
+      <c r="D134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3" t="n">
         <v>15.90434481005443</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F134" s="4" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
       </c>
+      <c r="G134" s="3" t="n">
+        <v>0.4043448100544307</v>
+      </c>
+      <c r="H134" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ⚫        </t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>FYR Macedonia</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="3" t="n">
         <v>10.79946314831462</v>
       </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="D135" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3" t="n">
         <v>10.79946314831462</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
       </c>
+      <c r="G135" s="3" t="n">
+        <v>0.2994631483146204</v>
+      </c>
+      <c r="H135" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              ⚫      </t>
+        </is>
+      </c>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="3" t="n">
         <v>10.62123830634322</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="3" t="n">
         <v>-1.5</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" s="3" t="n">
         <v>9.121238306343219</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
+      <c r="G136" s="3" t="n">
+        <v>0.6212383063432192</v>
+      </c>
+      <c r="H136" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ⚫            </t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr">
+        <is>
+          <t>Not covered</t>
+        </is>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="3" t="n">
         <v>16.33333333333333</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="3" t="n">
         <v>16.42168023694427</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" s="3" t="n">
         <v>16.72168023694427</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
+      <c r="G137" s="3" t="n">
+        <v>0.2216802369442696</v>
+      </c>
+      <c r="H137" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ⚫    </t>
+        </is>
+      </c>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="2" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="3" t="n">
         <v>13.71850567336644</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="3" t="n">
         <v>-1.4</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" s="3" t="n">
         <v>12.31850567336644</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>BB+</t>
         </is>
       </c>
+      <c r="G138" s="3" t="n">
+        <v>0.81850567336644</v>
+      </c>
+      <c r="H138" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ⚫                </t>
+        </is>
+      </c>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr">
+        <is>
+          <t>RAMSEY ANDRAWIS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J138"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>